--- a/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>GRYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,105 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,11 +918,11 @@
         <v>1200</v>
       </c>
       <c r="E12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,46 +1006,49 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1036,16 +1056,19 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -1062,8 +1085,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,20 +1125,21 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1120,11 +1147,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1146,31 +1173,34 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,31 +1245,32 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1259,13 +1293,16 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-1700</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1306,17 +1343,20 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1353,20 +1393,23 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1374,11 +1417,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1400,8 +1443,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,20 +1543,23 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1515,11 +1567,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1541,20 +1593,23 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1562,11 +1617,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,31 +1843,34 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1823,20 +1893,23 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1844,11 +1917,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,20 +1993,23 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1938,11 +2017,11 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,13 +2140,14 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2206,8 +2302,8 @@
       <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="F44" s="3">
+        <v>300</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -2221,8 +2317,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2265,8 +2364,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2277,8 +2376,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2298,11 +2400,11 @@
         <v>400</v>
       </c>
       <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,16 +2488,19 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>4700</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>4700</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -2409,8 +2517,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2580,11 +2700,11 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2597,8 +2717,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2674,11 +2800,11 @@
         <v>5100</v>
       </c>
       <c r="E54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,19 +2880,20 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -2771,7 +2902,7 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2797,16 +2928,19 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -2823,8 +2957,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2844,22 +2978,25 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -2874,7 +3011,7 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -2891,28 +3028,31 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
@@ -2921,7 +3061,7 @@
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -2938,17 +3078,20 @@
       <c r="Q60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E61" s="3">
         <v>4700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,28 +3328,31 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
       </c>
       <c r="I66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
@@ -3203,7 +3361,7 @@
         <v>300</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,19 +3598,22 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-45000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-42800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-41000</v>
       </c>
       <c r="G72" s="3">
         <v>-41000</v>
@@ -3448,10 +3622,10 @@
         <v>-41000</v>
       </c>
       <c r="I72" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-40900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-40800</v>
       </c>
       <c r="K72" s="3">
         <v>-40800</v>
@@ -3460,7 +3634,7 @@
         <v>-40800</v>
       </c>
       <c r="M72" s="3">
-        <v>-40700</v>
+        <v>-40800</v>
       </c>
       <c r="N72" s="3">
         <v>-40700</v>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3">
         <v>-40700</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-40700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,28 +3798,31 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
       </c>
       <c r="I76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
@@ -3645,7 +3831,7 @@
         <v>-300</v>
       </c>
       <c r="L76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,72 +3898,78 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -3782,11 +3977,11 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,16 +4025,17 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -3853,8 +4052,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,20 +4323,23 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,17 +4395,18 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4201,8 +4422,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,17 +4543,20 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4342,8 +4572,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,17 +4813,20 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4596,8 +4842,8 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>GRYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,93 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>100</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
@@ -765,8 +768,8 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -789,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,23 +921,24 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>1200</v>
       </c>
       <c r="F12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,49 +1025,52 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1070,8 +1092,8 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1088,8 +1110,8 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,23 +1151,24 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1150,11 +1176,11 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1176,17 +1202,20 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1202,8 +1231,8 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1226,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,17 +1278,18 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1272,8 +1305,8 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1296,17 +1329,20 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,20 +1382,23 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1396,23 +1435,26 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1420,11 +1462,11 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1446,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,23 +1594,26 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1570,11 +1621,11 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1596,23 +1647,26 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1620,11 +1674,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1646,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,17 +1912,20 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1872,8 +1941,8 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1896,23 +1965,26 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1920,11 +1992,11 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1946,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,23 +2071,26 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -2020,11 +2098,11 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2046,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,17 +2226,18 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,13 +2383,16 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
@@ -2305,8 +2400,8 @@
       <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>300</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -2320,8 +2415,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2367,8 +2465,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2379,8 +2477,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2391,23 +2489,26 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>400</v>
       </c>
       <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2502,8 +2609,8 @@
       <c r="E48" s="3">
         <v>4700</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>4700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -2520,8 +2627,8 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2703,11 +2822,11 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2720,8 +2839,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,23 +2913,26 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="E54" s="3">
         <v>5100</v>
       </c>
       <c r="F54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,22 +3010,23 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -2905,7 +3035,7 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2931,22 +3061,25 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2960,8 +3093,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2981,25 +3114,28 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
-        <v>900</v>
-      </c>
       <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3014,7 +3150,7 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -3031,31 +3167,34 @@
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -3064,7 +3203,7 @@
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -3081,8 +3220,11 @@
       <c r="R60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3090,11 +3232,11 @@
         <v>4600</v>
       </c>
       <c r="E61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F61" s="3">
         <v>4700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,31 +3485,34 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E66" s="3">
         <v>7200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -3364,7 +3521,7 @@
         <v>300</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,22 +3771,25 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-46800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-45000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-42800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-41000</v>
       </c>
       <c r="H72" s="3">
         <v>-41000</v>
@@ -3625,10 +3798,10 @@
         <v>-41000</v>
       </c>
       <c r="J72" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-40900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-40800</v>
       </c>
       <c r="L72" s="3">
         <v>-40800</v>
@@ -3637,7 +3810,7 @@
         <v>-40800</v>
       </c>
       <c r="N72" s="3">
-        <v>-40700</v>
+        <v>-40800</v>
       </c>
       <c r="O72" s="3">
         <v>-40700</v>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3">
         <v>-40700</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-40700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,31 +3983,34 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-400</v>
       </c>
       <c r="I76" s="3">
         <v>-400</v>
       </c>
       <c r="J76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
@@ -3834,7 +4019,7 @@
         <v>-300</v>
       </c>
       <c r="M76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,78 +4089,84 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3980,11 +4174,11 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -4006,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4037,8 +4235,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -4055,8 +4253,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,23 +4539,26 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4405,11 +4625,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4425,8 +4645,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4555,11 +4784,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4575,8 +4804,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,20 +5058,23 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4845,8 +5090,8 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4866,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,13 +5164,16 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4964,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>GRYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,8 +757,8 @@
       <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
+      <c r="F8" s="3">
+        <v>100</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
@@ -771,8 +775,8 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,26 +935,27 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>1200</v>
       </c>
       <c r="G12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,52 +1045,55 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1081,13 +1101,16 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1095,8 +1118,8 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -1113,8 +1136,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,26 +1178,27 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1179,11 +1206,11 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1205,20 +1232,23 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1234,8 +1264,8 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,11 +1322,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1308,8 +1342,8 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1332,20 +1366,23 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,23 +1422,26 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1438,26 +1478,29 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1465,11 +1508,11 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,26 +1646,29 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1624,11 +1676,11 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1650,26 +1702,29 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1677,11 +1732,11 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,11 +1994,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1944,8 +2014,8 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1968,26 +2038,29 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1995,11 +2068,11 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,26 +2150,29 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -2101,11 +2180,11 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,20 +2313,21 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2395,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
@@ -2403,8 +2499,8 @@
       <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>300</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2418,8 +2514,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2468,8 +2567,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2480,8 +2579,8 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2492,26 +2591,29 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
       </c>
       <c r="G46" s="3">
+        <v>400</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2612,8 +2720,8 @@
       <c r="F48" s="3">
         <v>4700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>4700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -2630,8 +2738,8 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2825,11 +2945,11 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2842,8 +2962,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,26 +3039,29 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5000</v>
-      </c>
-      <c r="E54" s="3">
-        <v>5100</v>
       </c>
       <c r="F54" s="3">
         <v>5100</v>
       </c>
       <c r="G54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,25 +3141,26 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3038,7 +3169,7 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,7 +3207,7 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -3081,8 +3215,8 @@
       <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -3096,8 +3230,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3117,28 +3251,31 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -3153,7 +3290,7 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -3170,34 +3307,37 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -3206,7 +3346,7 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3235,11 +3378,11 @@
         <v>4600</v>
       </c>
       <c r="F61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G61" s="3">
         <v>4700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,34 +3643,37 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E66" s="3">
         <v>8200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
@@ -3524,7 +3682,7 @@
         <v>300</v>
       </c>
       <c r="N66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,25 +3945,28 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-46800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-42800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-41000</v>
       </c>
       <c r="I72" s="3">
         <v>-41000</v>
@@ -3801,10 +3975,10 @@
         <v>-41000</v>
       </c>
       <c r="K72" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="L72" s="3">
         <v>-40900</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-40800</v>
       </c>
       <c r="M72" s="3">
         <v>-40800</v>
@@ -3813,7 +3987,7 @@
         <v>-40800</v>
       </c>
       <c r="O72" s="3">
-        <v>-40700</v>
+        <v>-40800</v>
       </c>
       <c r="P72" s="3">
         <v>-40700</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-40700</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-40700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,34 +4169,37 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-400</v>
       </c>
       <c r="J76" s="3">
         <v>-400</v>
       </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -4022,7 +4208,7 @@
         <v>-300</v>
       </c>
       <c r="N76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,84 +4281,90 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -4177,11 +4372,11 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4238,8 +4437,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -4256,8 +4455,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,26 +4756,29 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,23 +4836,24 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4648,8 +4869,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,23 +5002,26 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4807,8 +5037,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,14 +5316,14 @@
         <v>600</v>
       </c>
       <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5093,8 +5339,8 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,17 +5416,20 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>GRYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,114 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
@@ -778,11 +786,11 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -802,8 +810,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,32 +962,34 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,49 +1082,55 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1098,34 +1138,40 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1139,11 +1185,11 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,44 +1231,46 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="F17" s="3">
         <v>1800</v>
       </c>
       <c r="G17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1235,25 +1289,31 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-1700</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1000</v>
+        <v>-2300</v>
       </c>
       <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
+      <c r="G18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
@@ -1267,11 +1327,11 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1291,8 +1351,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,26 +1379,28 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1345,11 +1413,11 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1369,25 +1437,31 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-1700</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1000</v>
+        <v>-2200</v>
       </c>
       <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1425,29 +1499,35 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1481,44 +1561,50 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1537,8 +1623,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,44 +1747,50 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1705,44 +1809,50 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1761,8 +1871,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,26 +2119,32 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2017,11 +2157,11 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2041,44 +2181,50 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2097,8 +2243,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,44 +2305,50 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2209,69 +2367,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,26 +2486,28 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2544,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,31 +2668,37 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>300</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2517,11 +2709,11 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2538,16 +2730,22 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2570,11 +2768,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2582,11 +2780,11 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2594,32 +2792,38 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2854,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,16 +2916,22 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="E48" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F48" s="3">
         <v>4700</v>
@@ -2723,11 +2939,11 @@
       <c r="G48" s="3">
         <v>4700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>4700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2741,11 +2957,11 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2762,8 +2978,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,16 +3164,22 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2948,14 +3188,14 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2965,11 +3205,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,32 +3288,38 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F54" s="3">
         <v>4800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,40 +3402,42 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3198,8 +3460,14 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3210,19 +3478,19 @@
         <v>500</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -3233,11 +3501,11 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3254,34 +3522,40 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -3293,10 +3567,10 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3310,49 +3584,55 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -3366,13 +3646,19 @@
       <c r="T60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+      <c r="V60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4600</v>
+        <v>7200</v>
       </c>
       <c r="E61" s="3">
         <v>4600</v>
@@ -3381,14 +3667,14 @@
         <v>4600</v>
       </c>
       <c r="G61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I61" s="3">
         <v>4700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3708,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,49 +3956,55 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F66" s="3">
         <v>9200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
       </c>
       <c r="O66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+      <c r="V66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,52 +4290,58 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-50500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-48400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-46800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-45000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-42800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-41000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-41000</v>
       </c>
       <c r="K72" s="3">
         <v>-41000</v>
       </c>
       <c r="L72" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="N72" s="3">
         <v>-40900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-40800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-40800</v>
       </c>
       <c r="O72" s="3">
         <v>-40800</v>
       </c>
       <c r="P72" s="3">
-        <v>-40700</v>
+        <v>-40800</v>
       </c>
       <c r="Q72" s="3">
-        <v>-40700</v>
+        <v>-40800</v>
       </c>
       <c r="R72" s="3">
         <v>-40700</v>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3">
         <v>-40700</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-40700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,49 +4538,55 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
       </c>
       <c r="O76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
@@ -4228,8 +4600,14 @@
       <c r="T76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,105 +4662,117 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -4401,8 +4791,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4440,11 +4838,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -4458,11 +4856,11 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,32 +5187,38 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5249,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,29 +5277,31 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4872,11 +5314,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,29 +5459,35 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5040,11 +5500,11 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,29 +5793,35 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5342,11 +5834,11 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5363,8 +5855,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,23 +5917,29 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>GRYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -774,8 +777,8 @@
       <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="I8" s="3">
+        <v>100</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
@@ -792,8 +795,8 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -816,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,35 +976,36 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,61 +1104,64 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1162,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1191,8 +1213,8 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,35 +1258,36 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1269,11 +1295,11 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1321,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,20 +1333,20 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1333,8 +1362,8 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1357,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1399,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
@@ -1419,8 +1452,8 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1443,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,20 +1488,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1505,32 +1541,35 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1567,35 +1606,38 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1603,11 +1645,11 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1629,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,35 +1801,38 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1789,11 +1840,11 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1815,35 +1866,38 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1851,11 +1905,11 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1877,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2143,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
@@ -2163,8 +2232,8 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2187,35 +2256,38 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -2223,11 +2295,11 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2249,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,35 +2386,38 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2347,11 +2425,11 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2373,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,29 +2573,30 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2550,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,31 +2701,34 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2674,25 +2766,28 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
@@ -2700,8 +2795,8 @@
       <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>300</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -2715,8 +2810,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2736,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2748,13 +2846,13 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2774,8 +2872,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2786,8 +2884,8 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2798,35 +2896,38 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
       </c>
       <c r="J46" s="3">
+        <v>400</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2860,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,19 +3026,22 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4700</v>
       </c>
       <c r="G48" s="3">
         <v>4700</v>
@@ -2945,8 +3052,8 @@
       <c r="I48" s="3">
         <v>4700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>4700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2963,8 +3070,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2984,31 +3091,34 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,19 +3286,22 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3194,11 +3313,11 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3211,8 +3330,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,35 +3416,38 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5100</v>
       </c>
       <c r="I54" s="3">
         <v>5100</v>
       </c>
       <c r="J54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,34 +3533,35 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3440,7 +3570,7 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3466,13 +3596,16 @@
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -3484,7 +3617,7 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -3492,8 +3625,8 @@
       <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>200</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -3507,8 +3640,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3528,37 +3661,40 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3573,7 +3709,7 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3590,43 +3726,46 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
@@ -3635,7 +3774,7 @@
         <v>300</v>
       </c>
       <c r="Q60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
@@ -3652,8 +3791,11 @@
       <c r="V60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3661,7 +3803,7 @@
         <v>7200</v>
       </c>
       <c r="E61" s="3">
-        <v>4600</v>
+        <v>7200</v>
       </c>
       <c r="F61" s="3">
         <v>4600</v>
@@ -3673,11 +3815,11 @@
         <v>4600</v>
       </c>
       <c r="I61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J61" s="3">
         <v>4700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,43 +4116,46 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E66" s="3">
         <v>11000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
       </c>
       <c r="N66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
@@ -4007,7 +4164,7 @@
         <v>300</v>
       </c>
       <c r="Q66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,34 +4466,37 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-53900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-50500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-46800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-45000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-42800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-41000</v>
       </c>
       <c r="L72" s="3">
         <v>-41000</v>
@@ -4332,10 +4505,10 @@
         <v>-41000</v>
       </c>
       <c r="N72" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="O72" s="3">
         <v>-40900</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-40800</v>
       </c>
       <c r="P72" s="3">
         <v>-40800</v>
@@ -4344,7 +4517,7 @@
         <v>-40800</v>
       </c>
       <c r="R72" s="3">
-        <v>-40700</v>
+        <v>-40800</v>
       </c>
       <c r="S72" s="3">
         <v>-40700</v>
@@ -4358,8 +4531,11 @@
       <c r="V72" s="3">
         <v>-40700</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-40700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,43 +4726,46 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-400</v>
       </c>
       <c r="N76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O76" s="3">
         <v>-300</v>
@@ -4589,7 +4774,7 @@
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
@@ -4606,8 +4791,11 @@
       <c r="V76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,102 +4856,108 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -4771,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4797,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4844,8 +5042,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4862,8 +5060,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,35 +5406,38 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-700</v>
       </c>
       <c r="F89" s="3">
         <v>-700</v>
       </c>
       <c r="G89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -5255,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,32 +5498,33 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5320,8 +5540,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,32 +5691,35 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5506,8 +5735,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,32 +6041,35 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>600</v>
       </c>
       <c r="G100" s="3">
         <v>600</v>
       </c>
       <c r="H100" s="3">
+        <v>600</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5840,8 +6085,8 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5861,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,26 +6171,29 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5983,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>GRYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -780,8 +784,8 @@
       <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="J8" s="3">
+        <v>100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -798,8 +802,8 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -986,29 +1000,29 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,64 +1124,67 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1172,13 +1192,16 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1187,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1216,8 +1239,8 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,38 +1285,39 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1298,11 +1325,11 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,23 +1363,23 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1365,8 +1395,8 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1437,8 +1471,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1455,8 +1489,8 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,23 +1525,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,26 +1593,26 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1609,38 +1649,41 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1648,11 +1691,11 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,38 +1853,41 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1843,11 +1895,11 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1869,38 +1921,41 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1908,11 +1963,11 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2217,8 +2287,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -2235,8 +2305,8 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2259,38 +2329,41 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2298,11 +2371,11 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,38 +2465,41 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2428,11 +2507,11 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,32 +2660,33 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,17 +2794,20 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2730,8 +2823,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2769,28 +2862,31 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>300</v>
@@ -2798,8 +2894,8 @@
       <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>300</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2813,8 +2909,8 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2834,13 +2930,16 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>200</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -2848,14 +2947,14 @@
       <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2875,8 +2974,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2887,8 +2986,8 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -2899,38 +2998,41 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
       </c>
       <c r="K46" s="3">
+        <v>400</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,22 +3134,25 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E48" s="3">
         <v>5200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>4700</v>
       </c>
       <c r="H48" s="3">
         <v>4700</v>
@@ -3055,8 +3163,8 @@
       <c r="J48" s="3">
         <v>4700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>4700</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -3073,8 +3181,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3094,17 +3202,20 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3120,8 +3231,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3300,8 +3420,8 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3316,11 +3436,11 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3333,8 +3453,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,38 +3542,41 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>5100</v>
       </c>
       <c r="J54" s="3">
         <v>5100</v>
       </c>
       <c r="K54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,37 +3664,38 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3573,7 +3704,7 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3599,16 +3730,19 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
-      </c>
-      <c r="E58" s="3">
-        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -3620,7 +3754,7 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -3628,8 +3762,8 @@
       <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>200</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3643,8 +3777,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3664,40 +3798,43 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -3712,7 +3849,7 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
@@ -3729,46 +3866,49 @@
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
@@ -3777,7 +3917,7 @@
         <v>300</v>
       </c>
       <c r="R60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
@@ -3794,19 +3934,22 @@
       <c r="W60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7200</v>
+        <v>4600</v>
       </c>
       <c r="E61" s="3">
         <v>7200</v>
       </c>
       <c r="F61" s="3">
-        <v>4600</v>
+        <v>7200</v>
       </c>
       <c r="G61" s="3">
         <v>4600</v>
@@ -3818,11 +3961,11 @@
         <v>4600</v>
       </c>
       <c r="J61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,46 +4274,49 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E66" s="3">
         <v>12300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
       </c>
       <c r="O66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
@@ -4167,7 +4325,7 @@
         <v>300</v>
       </c>
       <c r="R66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,37 +4640,40 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-56600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-53900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-50500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-46800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-45000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-42800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-41000</v>
       </c>
       <c r="M72" s="3">
         <v>-41000</v>
@@ -4508,10 +4682,10 @@
         <v>-41000</v>
       </c>
       <c r="O72" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="P72" s="3">
         <v>-40900</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-40800</v>
       </c>
       <c r="Q72" s="3">
         <v>-40800</v>
@@ -4520,7 +4694,7 @@
         <v>-40800</v>
       </c>
       <c r="S72" s="3">
-        <v>-40700</v>
+        <v>-40800</v>
       </c>
       <c r="T72" s="3">
         <v>-40700</v>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3">
         <v>-40700</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-40700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,46 +4912,49 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-400</v>
       </c>
       <c r="N76" s="3">
         <v>-400</v>
       </c>
       <c r="O76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
@@ -4777,7 +4963,7 @@
         <v>-300</v>
       </c>
       <c r="R76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,108 +5048,114 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -4968,11 +5163,11 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,13 +5217,14 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5045,8 +5244,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -5063,8 +5262,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,38 +5623,41 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-700</v>
       </c>
       <c r="G89" s="3">
         <v>-700</v>
       </c>
       <c r="H89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,35 +5719,36 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5543,8 +5764,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5703,26 +5933,26 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5738,8 +5968,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,35 +6287,38 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
-      </c>
-      <c r="G100" s="3">
-        <v>600</v>
       </c>
       <c r="H100" s="3">
         <v>600</v>
       </c>
       <c r="I100" s="3">
+        <v>600</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6088,8 +6334,8 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,29 +6423,32 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>GRYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -787,8 +791,8 @@
       <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>100</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
@@ -805,8 +809,8 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1000,32 +1014,32 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,67 +1144,70 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1227,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1213,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1242,8 +1265,8 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,41 +1312,42 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1328,11 +1355,11 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1381,11 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,26 +1393,26 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1398,8 +1428,8 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1422,8 +1452,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1474,8 +1508,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
@@ -1492,8 +1526,8 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1516,8 +1550,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,26 +1562,26 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1596,26 +1636,26 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1652,41 +1692,44 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1694,11 +1737,11 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1720,8 +1763,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,41 +1905,44 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1898,11 +1950,11 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1924,41 +1976,44 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1966,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1992,8 +2047,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2290,8 +2360,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
@@ -2308,8 +2378,8 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2332,41 +2402,44 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2374,11 +2447,11 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2473,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,41 +2544,44 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2510,11 +2589,11 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2536,81 +2615,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,35 +2747,36 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2816,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,20 +2887,23 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2826,8 +2919,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2865,31 +2958,34 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
@@ -2897,8 +2993,8 @@
       <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>300</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2912,8 +3008,8 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2933,16 +3029,19 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -2950,14 +3049,14 @@
       <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2977,8 +3076,8 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
@@ -2989,8 +3088,8 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3001,41 +3100,44 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
       </c>
       <c r="L46" s="3">
+        <v>400</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,16 +3254,16 @@
         <v>5500</v>
       </c>
       <c r="E48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4700</v>
       </c>
       <c r="I48" s="3">
         <v>4700</v>
@@ -3166,8 +3274,8 @@
       <c r="K48" s="3">
         <v>4700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>4700</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -3184,8 +3292,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,11 +3325,11 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3234,8 +3345,8 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3439,11 +3559,11 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3456,8 +3576,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,41 +3668,44 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>5100</v>
       </c>
       <c r="K54" s="3">
         <v>5100</v>
       </c>
       <c r="L54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,40 +3795,41 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -3707,7 +3838,7 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,10 +3876,10 @@
         <v>3600</v>
       </c>
       <c r="E58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>500</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -3757,7 +3891,7 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -3765,8 +3899,8 @@
       <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>200</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -3780,8 +3914,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3801,43 +3935,46 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -3852,7 +3989,7 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
@@ -3869,49 +4006,52 @@
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E60" s="3">
         <v>8300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
       <c r="P60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
@@ -3920,7 +4060,7 @@
         <v>300</v>
       </c>
       <c r="S60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,13 +4089,13 @@
         <v>4600</v>
       </c>
       <c r="E61" s="3">
-        <v>7200</v>
+        <v>4600</v>
       </c>
       <c r="F61" s="3">
         <v>7200</v>
       </c>
       <c r="G61" s="3">
-        <v>4600</v>
+        <v>7200</v>
       </c>
       <c r="H61" s="3">
         <v>4600</v>
@@ -3964,11 +4107,11 @@
         <v>4600</v>
       </c>
       <c r="K61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L61" s="3">
         <v>4700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,49 +4432,52 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E66" s="3">
         <v>12900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
       </c>
       <c r="P66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
@@ -4328,7 +4486,7 @@
         <v>300</v>
       </c>
       <c r="S66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,40 +4814,43 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-58900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-56600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-53900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-50500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-46800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-42800</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-41000</v>
       </c>
       <c r="N72" s="3">
         <v>-41000</v>
@@ -4685,10 +4859,10 @@
         <v>-41000</v>
       </c>
       <c r="P72" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-40900</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-40800</v>
       </c>
       <c r="R72" s="3">
         <v>-40800</v>
@@ -4697,7 +4871,7 @@
         <v>-40800</v>
       </c>
       <c r="T72" s="3">
-        <v>-40700</v>
+        <v>-40800</v>
       </c>
       <c r="U72" s="3">
         <v>-40700</v>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3">
         <v>-40700</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-40700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,49 +5098,52 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-400</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
       </c>
       <c r="P76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
@@ -4966,7 +5152,7 @@
         <v>-300</v>
       </c>
       <c r="S76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T76" s="3">
         <v>-200</v>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,114 +5240,120 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -5166,11 +5361,11 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -5192,8 +5387,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,7 +5426,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5247,8 +5446,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -5265,8 +5464,8 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,41 +5840,44 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-700</v>
       </c>
       <c r="H89" s="3">
         <v>-700</v>
       </c>
       <c r="I89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,38 +5940,39 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5767,8 +5988,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,38 +6151,41 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5971,8 +6201,8 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,38 +6533,41 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>600</v>
       </c>
       <c r="I100" s="3">
         <v>600</v>
       </c>
       <c r="J100" s="3">
+        <v>600</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6337,8 +6583,8 @@
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,32 +6675,35 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>GRYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,117 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -786,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -794,8 +798,8 @@
       <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3">
+        <v>100</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
@@ -812,8 +816,8 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -836,8 +840,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1014,35 +1028,35 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,70 +1164,73 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1218,19 +1238,22 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="3">
         <v>100</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1239,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1268,8 +1291,8 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,44 +1339,45 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1358,11 +1385,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1384,38 +1411,41 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1431,8 +1461,8 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
@@ -1455,8 +1485,11 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,13 +1515,14 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1511,8 +1545,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
@@ -1529,8 +1563,8 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1553,38 +1587,41 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-600</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1639,26 +1679,26 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1695,44 +1735,47 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1740,11 +1783,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1766,8 +1809,11 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,44 +1957,47 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1953,11 +2005,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1979,44 +2031,47 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -2024,11 +2079,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -2050,8 +2105,11 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,13 +2401,16 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2363,8 +2433,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
@@ -2381,8 +2451,8 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2405,44 +2475,47 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2450,11 +2523,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2476,8 +2549,11 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,44 +2623,47 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2592,11 +2671,11 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2618,84 +2697,90 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2834,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2757,29 +2844,29 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2819,8 +2906,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2901,12 +2994,12 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2922,8 +3015,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2961,34 +3054,37 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
@@ -2996,8 +3092,8 @@
       <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>300</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -3011,8 +3107,8 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -3032,19 +3128,22 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -3052,14 +3151,14 @@
       <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3079,8 +3178,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -3091,8 +3190,8 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3103,44 +3202,47 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>400</v>
       </c>
       <c r="L46" s="3">
         <v>400</v>
       </c>
       <c r="M46" s="3">
+        <v>400</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -3174,8 +3276,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,28 +3350,31 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="E48" s="3">
         <v>5500</v>
       </c>
       <c r="F48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4700</v>
       </c>
       <c r="J48" s="3">
         <v>4700</v>
@@ -3277,8 +3385,8 @@
       <c r="L48" s="3">
         <v>4700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>4700</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -3295,8 +3403,8 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3328,11 +3439,11 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3348,8 +3459,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3562,11 +3682,11 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3579,8 +3699,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,44 +3794,47 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>5100</v>
       </c>
       <c r="L54" s="3">
         <v>5100</v>
       </c>
       <c r="M54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,43 +3926,44 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -3841,7 +3972,7 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3867,22 +3998,25 @@
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="E58" s="3">
         <v>3600</v>
       </c>
       <c r="F58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G58" s="3">
         <v>900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
@@ -3894,7 +4028,7 @@
         <v>500</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -3902,8 +4036,8 @@
       <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>200</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3917,8 +4051,8 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3938,46 +4072,49 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -3992,7 +4129,7 @@
         <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -4009,52 +4146,55 @@
       <c r="Y59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E60" s="3">
         <v>8500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
       <c r="Q60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
@@ -4063,7 +4203,7 @@
         <v>300</v>
       </c>
       <c r="T60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
@@ -4080,25 +4220,28 @@
       <c r="Y60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E61" s="3">
         <v>4600</v>
       </c>
       <c r="F61" s="3">
-        <v>7200</v>
+        <v>4600</v>
       </c>
       <c r="G61" s="3">
         <v>7200</v>
       </c>
       <c r="H61" s="3">
-        <v>4600</v>
+        <v>7200</v>
       </c>
       <c r="I61" s="3">
         <v>4600</v>
@@ -4110,11 +4253,11 @@
         <v>4600</v>
       </c>
       <c r="L61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M61" s="3">
         <v>4700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,52 +4590,55 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E66" s="3">
         <v>13100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
       </c>
       <c r="Q66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
@@ -4489,7 +4647,7 @@
         <v>300</v>
       </c>
       <c r="T66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,43 +4988,46 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-59500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-58900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-56600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-53900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-50500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-45000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-42800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-41000</v>
       </c>
       <c r="O72" s="3">
         <v>-41000</v>
@@ -4862,10 +5036,10 @@
         <v>-41000</v>
       </c>
       <c r="Q72" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="R72" s="3">
         <v>-40900</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-40800</v>
       </c>
       <c r="S72" s="3">
         <v>-40800</v>
@@ -4874,7 +5048,7 @@
         <v>-40800</v>
       </c>
       <c r="U72" s="3">
-        <v>-40700</v>
+        <v>-40800</v>
       </c>
       <c r="V72" s="3">
         <v>-40700</v>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3">
         <v>-40700</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-40700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,52 +5284,55 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-400</v>
       </c>
       <c r="Q76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R76" s="3">
         <v>-300</v>
@@ -5155,7 +5341,7 @@
         <v>-300</v>
       </c>
       <c r="T76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,120 +5432,126 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -5364,11 +5559,11 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -5390,8 +5585,11 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5429,7 +5628,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5449,8 +5648,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -5467,8 +5666,8 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,44 +6057,47 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-700</v>
       </c>
       <c r="I89" s="3">
         <v>-700</v>
       </c>
       <c r="J89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -5914,8 +6131,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5950,32 +6171,32 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5991,8 +6212,8 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,41 +6381,44 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6204,8 +6434,8 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,41 +6779,44 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>600</v>
       </c>
       <c r="J100" s="3">
         <v>600</v>
       </c>
       <c r="K100" s="3">
+        <v>600</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6586,8 +6832,8 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6607,8 +6853,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,35 +6927,38 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
